--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/CD/10/seed1/result_data_RandomForest.xlsx
@@ -491,10 +491,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.13509999999999</v>
+        <v>-12.00379999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.2338</v>
+        <v>-8.279500000000002</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.2862</v>
+        <v>-13.4302</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.111799999999995</v>
+        <v>-5.935399999999998</v>
       </c>
     </row>
     <row r="13">
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.29409999999999</v>
+        <v>-14.181</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -690,7 +690,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.027199999999995</v>
+        <v>-8.758100000000001</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.270399999999992</v>
+        <v>-8.394999999999992</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.324499999999992</v>
+        <v>-8.451899999999991</v>
       </c>
     </row>
     <row r="21">
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.4829</v>
+        <v>-13.628</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.6878</v>
+        <v>-11.6097</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.243799999999997</v>
+        <v>-7.333199999999997</v>
       </c>
     </row>
     <row r="32">
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.4722</v>
+        <v>-12.48889999999999</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -995,10 +995,10 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.43870000000001</v>
+        <v>-12.5757</v>
       </c>
       <c r="D40" t="n">
-        <v>-8.398899999999992</v>
+        <v>-8.405799999999994</v>
       </c>
     </row>
     <row r="41">
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.560699999999999</v>
+        <v>-8.563699999999997</v>
       </c>
     </row>
     <row r="43">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.424400000000002</v>
+        <v>-7.424099999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.203499999999994</v>
+        <v>-7.196399999999996</v>
       </c>
     </row>
     <row r="49">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.3213</v>
+        <v>-11.2898</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.9611</v>
+        <v>-14.3094</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1320,7 +1320,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-6.705299999999997</v>
+        <v>-6.596699999999998</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-6.938899999999993</v>
+        <v>-7.015899999999993</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.4833</v>
+        <v>-11.4096</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1502,7 +1502,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.765700000000005</v>
+        <v>-7.7175</v>
       </c>
     </row>
     <row r="77">
@@ -1572,7 +1572,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.458499999999995</v>
+        <v>-7.483399999999996</v>
       </c>
     </row>
     <row r="82">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.2392</v>
+        <v>-8.211800000000004</v>
       </c>
     </row>
     <row r="90">
@@ -1754,7 +1754,7 @@
         <v>-9.49</v>
       </c>
       <c r="D94" t="n">
-        <v>-6.228599999999997</v>
+        <v>-6.053500000000001</v>
       </c>
     </row>
     <row r="95">
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.23979999999999</v>
+        <v>-12.0818</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
